--- a/import/prep/excel/64-4ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ พย63(1-31มค64).xlsx
+++ b/import/prep/excel/64-4ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ พย63(1-31มค64).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B00403-6082-D54B-8DB1-62DAFE4406AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D53F9-65CC-8341-8571-9ECA97D35430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50140" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="820" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$T$827</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$Y$248</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11230,7 +11230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -11318,17 +11318,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -11398,7 +11387,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11803,12 +11792,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11838,22 +11825,46 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11862,44 +11873,14 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -12217,22 +12198,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="161" t="s">
         <v>3078</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="151"/>
@@ -12254,25 +12235,25 @@
       <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="160" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="162" t="s">
+      <c r="D3" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="162" t="s">
+      <c r="E3" s="160" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="164" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="152" t="s">
@@ -12281,47 +12262,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="162" t="s">
+      <c r="J3" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="160" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="162" t="s">
+      <c r="M3" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="165" t="s">
+      <c r="N3" s="163" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="162"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
       <c r="C4" s="150" t="s">
         <v>2311</v>
       </c>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
       <c r="F4" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="166"/>
+      <c r="G4" s="164"/>
       <c r="H4" s="152" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
       <c r="L4" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="162"/>
-      <c r="N4" s="165"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="163"/>
       <c r="R4" s="100" t="s">
         <v>3079</v>
       </c>
@@ -54209,22 +54190,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="162" t="s">
         <v>3274</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
       <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
@@ -54245,25 +54226,25 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="165" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="167" t="s">
+      <c r="E3" s="165" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="169" t="s">
+      <c r="G3" s="167" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="152" t="s">
@@ -54272,47 +54253,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="167" t="s">
+      <c r="J3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="165" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="167" t="s">
+      <c r="M3" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="171" t="s">
+      <c r="N3" s="169" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="168"/>
-      <c r="B4" s="168"/>
+      <c r="A4" s="166"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="150" t="s">
         <v>2311</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
       <c r="F4" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="170"/>
+      <c r="G4" s="168"/>
       <c r="H4" s="152" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
       <c r="L4" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="168"/>
-      <c r="N4" s="172"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="170"/>
       <c r="Q4" s="102"/>
       <c r="R4" s="103"/>
     </row>
@@ -66971,8 +66952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="E231" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R249" sqref="R249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -66999,25 +66980,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="177" t="s">
         <v>3307</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
       <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
@@ -67045,82 +67026,82 @@
       <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="162" t="s">
+      <c r="E3" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="167" t="s">
+      <c r="F3" s="165" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="182" t="s">
+      <c r="I3" s="179" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="122"/>
-      <c r="K3" s="176" t="s">
+      <c r="K3" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="184" t="s">
+      <c r="L3" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="176" t="s">
+      <c r="M3" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="176" t="s">
+      <c r="N3" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="176" t="s">
+      <c r="O3" s="171" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="178" t="s">
+      <c r="Q3" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="186" t="s">
+      <c r="R3" s="175" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="162"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="168"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="166"/>
       <c r="G4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="168"/>
-      <c r="I4" s="183"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="123"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
       <c r="P4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="187"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="176"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -68141,10 +68122,19 @@
         <f t="shared" si="7"/>
         <v>119.84</v>
       </c>
-      <c r="Q21" s="159">
+      <c r="Q21" s="133">
+        <v>119.85</v>
+      </c>
+      <c r="R21" s="133">
+        <v>119.85</v>
+      </c>
+      <c r="S21" s="31">
+        <f>SUM(R21:R23)</f>
         <v>367.25</v>
       </c>
-      <c r="R21" s="133"/>
+      <c r="T21" s="159">
+        <v>367.25</v>
+      </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="51">
@@ -68201,8 +68191,12 @@
         <f t="shared" si="7"/>
         <v>127.33</v>
       </c>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="133"/>
+      <c r="Q22" s="133">
+        <v>127.55</v>
+      </c>
+      <c r="R22" s="133">
+        <v>127.55</v>
+      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="51">
@@ -68259,8 +68253,12 @@
         <f t="shared" si="7"/>
         <v>119.84</v>
       </c>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="133"/>
+      <c r="Q23" s="133">
+        <v>119.85</v>
+      </c>
+      <c r="R23" s="133">
+        <v>119.85</v>
+      </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="51">
@@ -81286,7 +81284,7 @@
       </c>
       <c r="R240" s="133"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A241" s="51">
         <v>237</v>
       </c>
@@ -81341,12 +81339,21 @@
         <f t="shared" si="31"/>
         <v>355.77</v>
       </c>
-      <c r="Q241" s="189">
+      <c r="Q241" s="133">
+        <v>355.77</v>
+      </c>
+      <c r="R241" s="133">
+        <v>355.77</v>
+      </c>
+      <c r="S241" s="31">
+        <f>SUM(R241:R244)</f>
         <v>850.25</v>
       </c>
-      <c r="R241" s="133"/>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="T241" s="189">
+        <v>850.25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A242" s="51">
         <v>238</v>
       </c>
@@ -81401,10 +81408,14 @@
         <f t="shared" si="31"/>
         <v>355.77</v>
       </c>
-      <c r="Q242" s="190"/>
-      <c r="R242" s="133"/>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q242" s="133">
+        <v>355.77</v>
+      </c>
+      <c r="R242" s="133">
+        <v>355.77</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A243" s="51">
         <v>239</v>
       </c>
@@ -81459,10 +81470,14 @@
         <f t="shared" si="31"/>
         <v>78.64</v>
       </c>
-      <c r="Q243" s="190"/>
-      <c r="R243" s="133"/>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q243" s="133">
+        <v>78.75</v>
+      </c>
+      <c r="R243" s="133">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A244" s="51">
         <v>240</v>
       </c>
@@ -81517,10 +81532,14 @@
         <f t="shared" si="31"/>
         <v>59.92</v>
       </c>
-      <c r="Q244" s="191"/>
-      <c r="R244" s="133"/>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q244" s="133">
+        <v>59.96</v>
+      </c>
+      <c r="R244" s="133">
+        <v>59.96</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A245" s="51">
         <v>241</v>
       </c>
@@ -81580,7 +81599,7 @@
       </c>
       <c r="R245" s="133"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A246" s="51">
         <v>242</v>
       </c>
@@ -81640,7 +81659,7 @@
       </c>
       <c r="R246" s="133"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A247" s="51">
         <v>243</v>
       </c>
@@ -81700,7 +81719,7 @@
       </c>
       <c r="R247" s="133"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A248" s="51">
         <v>244</v>
       </c>
@@ -81760,7 +81779,7 @@
       </c>
       <c r="R248" s="133"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A249" s="51">
         <v>245</v>
       </c>
@@ -81820,7 +81839,7 @@
       </c>
       <c r="R249" s="133"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A250" s="51">
         <v>246</v>
       </c>
@@ -81880,7 +81899,7 @@
       </c>
       <c r="R250" s="133"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A251" s="51">
         <v>247</v>
       </c>
@@ -81940,7 +81959,7 @@
       </c>
       <c r="R251" s="133"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A252" s="51">
         <v>248</v>
       </c>
@@ -81999,7 +82018,7 @@
       </c>
       <c r="R252" s="133"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A253" s="51">
         <v>249</v>
       </c>
@@ -82059,7 +82078,7 @@
       </c>
       <c r="R253" s="133"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A254" s="51">
         <v>250</v>
       </c>
@@ -82119,7 +82138,7 @@
       </c>
       <c r="R254" s="133"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A255" s="51">
         <v>251</v>
       </c>
@@ -82179,7 +82198,7 @@
       </c>
       <c r="R255" s="133"/>
     </row>
-    <row r="256" spans="1:18" ht="25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E256" s="78" t="s">
         <v>22</v>
       </c>
@@ -82210,7 +82229,7 @@
       </c>
       <c r="Q256" s="83">
         <f>SUM(Q5:Q255)</f>
-        <v>42234.329999999994</v>
+        <v>42234.329999999987</v>
       </c>
       <c r="R256" s="84"/>
     </row>
@@ -82289,12 +82308,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="Q241:Q244"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
+  <mergeCells count="16">
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
@@ -82307,6 +82321,10 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -82349,25 +82367,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="177" t="s">
         <v>3559</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
       <c r="R1" s="53"/>
       <c r="S1" s="140"/>
       <c r="T1" s="140"/>
@@ -82403,99 +82421,99 @@
       <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="162" t="s">
+      <c r="E3" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="167" t="s">
+      <c r="F3" s="165" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="182" t="s">
+      <c r="I3" s="179" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="122"/>
-      <c r="K3" s="176" t="s">
+      <c r="K3" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="184" t="s">
+      <c r="L3" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="176" t="s">
+      <c r="M3" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="176" t="s">
+      <c r="N3" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="176" t="s">
+      <c r="O3" s="171" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="178" t="s">
+      <c r="Q3" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="193" t="s">
+      <c r="R3" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="181">
+      <c r="S3" s="188">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="188" t="s">
+      <c r="T3" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="175" t="s">
+      <c r="V3" s="184" t="s">
         <v>20</v>
       </c>
       <c r="Z3" s="24"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="162"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="168"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="166"/>
       <c r="G4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="168"/>
-      <c r="I4" s="183"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="123"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
       <c r="P4" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="192"/>
-      <c r="R4" s="193"/>
-      <c r="S4" s="181"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="188"/>
-      <c r="V4" s="175"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="186"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="184"/>
       <c r="Z4" s="24"/>
     </row>
     <row r="5" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -87517,15 +87535,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
@@ -87537,6 +87546,15 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
